--- a/data/case1/9/Q2_1.xlsx
+++ b/data/case1/9/Q2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.089679609823498652</v>
+        <v>0.091562213532490944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999556019645</v>
+        <v>-0.0059999999657414094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999655648821</v>
+        <v>-0.0039999999732387437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999353876916</v>
+        <v>-0.0079999999498117091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999709735548</v>
+        <v>-0.0029999999769492192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999769737542</v>
+        <v>-0.0019999999811552982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.017342893311889984</v>
+        <v>-0.009999999937133186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.034817171798849245</v>
+        <v>-0.0099999999389437377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999750575093</v>
+        <v>-0.001999999987794876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999718081085</v>
+        <v>0.059518927100990382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999642580377</v>
+        <v>-0.0029999999870122807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999596485587</v>
+        <v>-0.0034999999836147211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999564764295</v>
+        <v>-0.0034999999815470417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999229691809</v>
+        <v>-0.0079999999559614565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997349975445</v>
+        <v>0.003216645502210902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999656747924</v>
+        <v>-0.0019999999889059872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999650810452</v>
+        <v>-0.0019999999883237862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999502757788</v>
+        <v>-0.0039999999769202432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999701048061</v>
+        <v>-0.0039999999769158023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999705635503</v>
+        <v>-0.0039999999773048245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.012622726413551888</v>
+        <v>0.012707284690893772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999706372691</v>
+        <v>-0.0039999999773687733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999559364738</v>
+        <v>-0.00085977482048882337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999842523764</v>
+        <v>-0.019999999878793417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999840382365</v>
+        <v>-0.019999999877073904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999725050515</v>
+        <v>-0.0024999999777737258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999713486432</v>
+        <v>-0.0024999999769907966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.056831020176329794</v>
+        <v>-0.0019999999767632559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999925139555</v>
+        <v>-0.0069999999466370255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999534237514</v>
+        <v>-0.059999999649423597</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999172498661</v>
+        <v>-0.0069999999496239695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998949300561</v>
+        <v>-0.0099999999342639256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999384896512</v>
+        <v>0.055639658857961294</v>
       </c>
     </row>
   </sheetData>
